--- a/biology/Zoologie/Geoplanidae/Geoplanidae.xlsx
+++ b/biology/Zoologie/Geoplanidae/Geoplanidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Geoplanidae sont une famille de vers plats terrestres ou aquatiques, de l'ordre des Tricladida (super-famille des Geoplanoidea et sous-ordre des Continenticola).
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Geoplanidae terrestres sont des animaux de corps allongé, plat, d'aspect lisse (ni pattes ni anneaux) et légèrement gluant. Ils n'ont ni yeux ni bouche visibles et se déplacent lentement[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Geoplanidae terrestres sont des animaux de corps allongé, plat, d'aspect lisse (ni pattes ni anneaux) et légèrement gluant. Ils n'ont ni yeux ni bouche visibles et se déplacent lentement.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Certaines espèces de Geoplanidae sont invasives. Parmi celles-ci, on notera :
 Bipalium kewense ;
@@ -576,7 +592,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La répartition des sous-familles de Geoplanidae est indiquée dans les diagrammes ci-dessous.
 </t>
@@ -607,16 +625,123 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Geoplanidae Stimpson, 1857[2].
-Synonyme de Geoplanidae
-La famille des Geoplanidae a pour synonyme l'infra-ordre des Terricola Hallez, 1892[2].
-Phylogénie
-L'arbre suivant indique la position des Geoplanidae parmi les Tricladida.
-Arbre phylogénétique des Tricladida[3]
-Sous-taxons
-Selon la base de données World Register of Marine Species                               (15 janvier 2024)[2], la famille des Geoplanidae regroupe les sous-familles, tribus et genres suivants :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Geoplanidae Stimpson, 1857.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Geoplanidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geoplanidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonyme de Geoplanidae</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Geoplanidae a pour synonyme l'infra-ordre des Terricola Hallez, 1892.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Geoplanidae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geoplanidae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre suivant indique la position des Geoplanidae parmi les Tricladida.
+Arbre phylogénétique des Tricladida
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Geoplanidae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geoplanidae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous-taxons</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la base de données World Register of Marine Species                               (15 janvier 2024), la famille des Geoplanidae regroupe les sous-familles, tribus et genres suivants :
 Famille des Geoplanidae :
 sous-famille des Bipaliinae Stimpson, 1857
 genre Bipalium Stimpson, 1857
@@ -707,10 +832,80 @@
 			Platydemus manokwari
 			Rhynchodemus sylvaticus
 			Supramontana irritata
-Arbre phylogénétique des sous-taxons
-L'arbre suivant représente la classification phylogénétique des sous-familles et tribus de la famille des Geoplanidae.
-Synonymes, reclassements, suppressions
-D'après World Register of Marine Species                               (15 janvier 2024)[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Geoplanidae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geoplanidae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Arbre phylogénétique des sous-taxons</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre suivant représente la classification phylogénétique des sous-familles et tribus de la famille des Geoplanidae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Geoplanidae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geoplanidae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Synonymes, reclassements, suppressions</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>D'après World Register of Marine Species                               (15 janvier 2024) :
 Dans la sous-famille des Bipaliinae Stimpson, 1857  :
 Le genre Dunlopea Wright, 1860 est Bipalium Stimpson, 1857
 Le genre Perocephalus Graff, 1896 est Bipalium Stimpson, 1857
@@ -739,35 +934,40 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Geoplanidae</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Geoplanidae</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Geoplanidae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geoplanidae</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>L'espèce et l'humain</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Attitude à suivre en face d'un Geoplanidae
-Beaucoup de vers plats terrestres sécrètent de la tétrodotoxine — une toxine dangereuse — pour capturer leur proies. Il est donc déconseillé de les prendre à main nue.
-En cas de découverte d'un ver plat terrestre dans un jardin en France (pays où ils sont envahissants, nuisibles et sans prédateur connu), l'attitude à suivre est la suivante[4],[1] :
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Attitude à suivre en face d'un Geoplanidae</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Beaucoup de vers plats terrestres sécrètent de la tétrodotoxine — une toxine dangereuse — pour capturer leur proies. Il est donc déconseillé de les prendre à main nue.
+En cas de découverte d'un ver plat terrestre dans un jardin en France (pays où ils sont envahissants, nuisibles et sans prédateur connu), l'attitude à suivre est la suivante, :
 ne pas le toucher à main nue (on pourra le déplacer avec une allumette) ;
 le prendre en photo, avec une lumière suffisante et un repère d'étalonnage (par ex. une pièce de monnaie) pour évaluer sa longueur ;
 l’écraser (ou le placer dans un petit bocal étanche si on veut l'envoyer) ;
